--- a/biology/Zoologie/Gobemouche_nain/Gobemouche_nain.xlsx
+++ b/biology/Zoologie/Gobemouche_nain/Gobemouche_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficedula parva
 Le Gobemouche nain (Ficedula parva) est une espèce de passereaux appartenant à la famille des Muscicapidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobemouche nain est un très petit gobemouche qui mesure autour de 12 cm.
 Cet oiseau présente un dimorphisme sexuel : les mâles ont la gorge orangé, pas les femelles.
@@ -547,7 +561,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce passereau se nourrit d'insectes.
 </t>
@@ -578,7 +594,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est un oiseau chanteur.</t>
@@ -609,10 +627,12 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gobemouche niche dans les feuillages épais des bois caducifoliés ou mixtes d'une vaste zone allant de l'Europe centrale et de l'est à la Russie et au Japon, tant en plaine qu'en montagne.
-Au printemps et en été, il construit un nid dans une cavité  tel un tronc d'arbre vermoulu.... Ce nid, en forme de coupe, est constitué de racines, de tiges d'herbes et de mousse[1]. </t>
+Au printemps et en été, il construit un nid dans une cavité  tel un tronc d'arbre vermoulu.... Ce nid, en forme de coupe, est constitué de racines, de tiges d'herbes et de mousse. </t>
         </is>
       </c>
     </row>
@@ -640,7 +660,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Gobemouche nain est un oiseau migrateur.
